--- a/data-raw/Dict.en.xlsx
+++ b/data-raw/Dict.en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/RProjects/Rgogo/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/RProjects/IFRS17 Test/Rgogo (2024YE) (Test)/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BE221B-3385-CE41-96DA-B1F479817E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1EC7DC-8CCE-2543-BB36-E5C25E041B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41340" yWindow="500" windowWidth="18820" windowHeight="18980" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20000" xr2:uid="{8505B1D4-44B5-F044-AEEF-25724D899057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="179">
   <si>
     <t>Value</t>
   </si>
@@ -428,15 +428,9 @@
     <t>ropm</t>
   </si>
   <si>
-    <t>refund of premium on maturity</t>
-  </si>
-  <si>
     <t>ropd</t>
   </si>
   <si>
-    <t>refund of premium on death</t>
-  </si>
-  <si>
     <t>db</t>
   </si>
   <si>
@@ -564,6 +558,18 @@
   </si>
   <si>
     <t>Identifier</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>critical illness</t>
+  </si>
+  <si>
+    <t>refund of premium upon death</t>
+  </si>
+  <si>
+    <t>refund of premium upon maturity</t>
   </si>
 </sst>
 </file>
@@ -619,9 +625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -659,7 +665,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -765,7 +771,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -907,7 +913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -915,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BCE8C-A52C-3F45-86D8-8A72C3771248}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,10 +958,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -976,10 +982,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1040,287 +1046,287 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -1328,335 +1334,343 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B89">
-    <sortCondition ref="A2:A89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B90">
+    <sortCondition ref="A2:A90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
